--- a/data/pca/factorExposure/factorExposure_2017-11-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02301297467073827</v>
+        <v>-0.01477561089698992</v>
       </c>
       <c r="C2">
-        <v>-0.0005868283040186076</v>
+        <v>0.03760285980677695</v>
       </c>
       <c r="D2">
-        <v>-0.00863201461719036</v>
+        <v>0.0282496612488894</v>
       </c>
       <c r="E2">
-        <v>-0.01372790425079518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02885064575656163</v>
+      </c>
+      <c r="F2">
+        <v>0.03248785046330617</v>
+      </c>
+      <c r="G2">
+        <v>0.01482368625344949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.011581857746963</v>
+        <v>-0.05414443875951148</v>
       </c>
       <c r="C3">
-        <v>-0.04842645366534448</v>
+        <v>0.07774653163381845</v>
       </c>
       <c r="D3">
-        <v>0.01967399417467795</v>
+        <v>0.01420005566949371</v>
       </c>
       <c r="E3">
-        <v>0.02722219018084304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.07849656615943811</v>
+      </c>
+      <c r="F3">
+        <v>0.05996053807631972</v>
+      </c>
+      <c r="G3">
+        <v>0.07169160876705975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02195619428223714</v>
+        <v>-0.05598534559139746</v>
       </c>
       <c r="C4">
-        <v>-0.03326567788786571</v>
+        <v>0.06385550693922737</v>
       </c>
       <c r="D4">
-        <v>-0.04406271875606876</v>
+        <v>0.02212306600878106</v>
       </c>
       <c r="E4">
-        <v>-0.01650516438181351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0001790167617496228</v>
+      </c>
+      <c r="F4">
+        <v>0.01538853383600784</v>
+      </c>
+      <c r="G4">
+        <v>0.04091927526486958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0148552976985738</v>
+        <v>-0.03252150344870063</v>
       </c>
       <c r="C6">
-        <v>-0.05194456084382228</v>
+        <v>0.05380261001001692</v>
       </c>
       <c r="D6">
-        <v>-0.04388933910986366</v>
+        <v>0.016239654762959</v>
       </c>
       <c r="E6">
-        <v>-0.03469199985638494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.006984292993746941</v>
+      </c>
+      <c r="F6">
+        <v>0.01926277650054781</v>
+      </c>
+      <c r="G6">
+        <v>0.02399390122947079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01062087359266834</v>
+        <v>-0.01983864352046057</v>
       </c>
       <c r="C7">
-        <v>-0.02275401786684483</v>
+        <v>0.03712501105264424</v>
       </c>
       <c r="D7">
-        <v>-0.04956517252127538</v>
+        <v>0.0124606715958869</v>
       </c>
       <c r="E7">
-        <v>0.04977961122699766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01259334301267685</v>
+      </c>
+      <c r="F7">
+        <v>0.01070937434502927</v>
+      </c>
+      <c r="G7">
+        <v>0.07644264559528295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005734403819863741</v>
+        <v>0.002951523937351062</v>
       </c>
       <c r="C8">
-        <v>0.01631004103247403</v>
+        <v>0.01451630014754902</v>
       </c>
       <c r="D8">
-        <v>-0.02277151459466184</v>
+        <v>0.003963298670119732</v>
       </c>
       <c r="E8">
-        <v>-0.008080856531505747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0179836468115287</v>
+      </c>
+      <c r="F8">
+        <v>0.02168097057280179</v>
+      </c>
+      <c r="G8">
+        <v>0.02707427064262368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.014063390076689</v>
+        <v>-0.02864736105914329</v>
       </c>
       <c r="C9">
-        <v>-0.02449296472286092</v>
+        <v>0.04295881150613392</v>
       </c>
       <c r="D9">
-        <v>-0.024255855969789</v>
+        <v>0.0154132555995539</v>
       </c>
       <c r="E9">
-        <v>-0.008140377850986431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.004912256605736525</v>
+      </c>
+      <c r="F9">
+        <v>0.01823401744909853</v>
+      </c>
+      <c r="G9">
+        <v>0.03305987621615016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.006994532505666471</v>
+        <v>-0.08699005289925474</v>
       </c>
       <c r="C10">
-        <v>-0.08459016771951255</v>
+        <v>-0.1862799016072217</v>
       </c>
       <c r="D10">
-        <v>0.1178253423484971</v>
+        <v>-0.01879764728730531</v>
       </c>
       <c r="E10">
-        <v>0.1026222854262565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01945055945454889</v>
+      </c>
+      <c r="F10">
+        <v>-0.01503708384483709</v>
+      </c>
+      <c r="G10">
+        <v>0.03826160109195636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001812310106570917</v>
+        <v>-0.03631091889339682</v>
       </c>
       <c r="C11">
-        <v>-0.01755148960270726</v>
+        <v>0.05226575658705025</v>
       </c>
       <c r="D11">
-        <v>-0.02017215076747372</v>
+        <v>0.00130123573492016</v>
       </c>
       <c r="E11">
-        <v>-0.02734941078643697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001442067419853601</v>
+      </c>
+      <c r="F11">
+        <v>0.02438633615820753</v>
+      </c>
+      <c r="G11">
+        <v>0.01432363490167218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00508516812544228</v>
+        <v>-0.03341712808149147</v>
       </c>
       <c r="C12">
-        <v>-0.0273273094344726</v>
+        <v>0.04445275423964573</v>
       </c>
       <c r="D12">
-        <v>-0.02629399871893237</v>
+        <v>0.005478838329428098</v>
       </c>
       <c r="E12">
-        <v>-0.02402641771238418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.008330753020644821</v>
+      </c>
+      <c r="F12">
+        <v>0.006661279520577753</v>
+      </c>
+      <c r="G12">
+        <v>0.01840859963656406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02084899050280156</v>
+        <v>-0.01227002349019884</v>
       </c>
       <c r="C13">
-        <v>-0.009050311295601752</v>
+        <v>0.03349712568751746</v>
       </c>
       <c r="D13">
-        <v>-0.003732160217116911</v>
+        <v>0.0246451322272926</v>
       </c>
       <c r="E13">
-        <v>-0.00718418244276115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02441240683022556</v>
+      </c>
+      <c r="F13">
+        <v>0.02356931033571183</v>
+      </c>
+      <c r="G13">
+        <v>0.02955158289883781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006742694997158657</v>
+        <v>-0.007307943706851548</v>
       </c>
       <c r="C14">
-        <v>-0.01236069545670626</v>
+        <v>0.02537883000915457</v>
       </c>
       <c r="D14">
-        <v>-0.01421851634356557</v>
+        <v>0.008507557540585301</v>
       </c>
       <c r="E14">
-        <v>0.007315310586079342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.003712318375182666</v>
+      </c>
+      <c r="F14">
+        <v>0.00370604452773901</v>
+      </c>
+      <c r="G14">
+        <v>0.03719159709762995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0001410417046510747</v>
+        <v>-0.03253245817868385</v>
       </c>
       <c r="C16">
-        <v>-0.02337479335293665</v>
+        <v>0.04252061283956045</v>
       </c>
       <c r="D16">
-        <v>-0.02877772175579564</v>
+        <v>0.0009244407406294432</v>
       </c>
       <c r="E16">
-        <v>-0.02629480212661819</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0007907616172897205</v>
+      </c>
+      <c r="F16">
+        <v>0.01048417978840595</v>
+      </c>
+      <c r="G16">
+        <v>0.0176367697242608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01141438369319345</v>
+        <v>-0.02994044330569361</v>
       </c>
       <c r="C19">
-        <v>-0.01890466172962146</v>
+        <v>0.05503294642363964</v>
       </c>
       <c r="D19">
-        <v>-0.02415186691720452</v>
+        <v>0.01540158206014665</v>
       </c>
       <c r="E19">
-        <v>-0.0184986774310378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.03994879887400285</v>
+      </c>
+      <c r="F19">
+        <v>0.03820403436266338</v>
+      </c>
+      <c r="G19">
+        <v>0.03576501554282582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.00962422351781313</v>
+        <v>-0.01135214732693008</v>
       </c>
       <c r="C20">
-        <v>-0.002488579042528684</v>
+        <v>0.03462806855292461</v>
       </c>
       <c r="D20">
-        <v>-0.00376282430545327</v>
+        <v>0.01306297836192474</v>
       </c>
       <c r="E20">
-        <v>0.002932378441339247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02216334725752605</v>
+      </c>
+      <c r="F20">
+        <v>0.00631349147443532</v>
+      </c>
+      <c r="G20">
+        <v>0.02975478035411925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01336056817323544</v>
+        <v>-0.01260136151980241</v>
       </c>
       <c r="C21">
-        <v>-0.02991222444516266</v>
+        <v>0.0330927410539099</v>
       </c>
       <c r="D21">
-        <v>-0.02010007930552172</v>
+        <v>0.01603089425253365</v>
       </c>
       <c r="E21">
-        <v>0.009922451897159471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02978718867364422</v>
+      </c>
+      <c r="F21">
+        <v>0.02087493557305081</v>
+      </c>
+      <c r="G21">
+        <v>0.05237173960453195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.00439448962722167</v>
+        <v>-0.02719207172904485</v>
       </c>
       <c r="C24">
-        <v>-0.02101350152849732</v>
+        <v>0.04565745684278784</v>
       </c>
       <c r="D24">
-        <v>-0.02450758663418446</v>
+        <v>0.006289778778355202</v>
       </c>
       <c r="E24">
-        <v>-0.02357753708625276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005175541244083428</v>
+      </c>
+      <c r="F24">
+        <v>0.02009098016183058</v>
+      </c>
+      <c r="G24">
+        <v>0.01742538701700577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01059969135234088</v>
+        <v>-0.04408659534004327</v>
       </c>
       <c r="C25">
-        <v>-0.03357851199008813</v>
+        <v>0.05248317796537866</v>
       </c>
       <c r="D25">
-        <v>-0.02336311620928687</v>
+        <v>0.01013947727884219</v>
       </c>
       <c r="E25">
-        <v>-0.02490630608802718</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01262696117791876</v>
+      </c>
+      <c r="F25">
+        <v>0.01436012766566904</v>
+      </c>
+      <c r="G25">
+        <v>0.02324834879057381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02259400519948356</v>
+        <v>-0.008321233713683429</v>
       </c>
       <c r="C26">
-        <v>-0.0007298868880904507</v>
+        <v>0.008225546739838894</v>
       </c>
       <c r="D26">
-        <v>-0.002055740875670461</v>
+        <v>0.02366002298082143</v>
       </c>
       <c r="E26">
-        <v>0.00961613413426202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.008641295800964293</v>
+      </c>
+      <c r="F26">
+        <v>0.006026966730103748</v>
+      </c>
+      <c r="G26">
+        <v>0.02622777382197012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0225994721373812</v>
+        <v>-0.1097576380612035</v>
       </c>
       <c r="C28">
-        <v>-0.1256479522755102</v>
+        <v>-0.2290915686162491</v>
       </c>
       <c r="D28">
-        <v>0.1818214721607573</v>
+        <v>-0.01016420930396501</v>
       </c>
       <c r="E28">
-        <v>0.1625874463249611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008083326372885166</v>
+      </c>
+      <c r="F28">
+        <v>-0.007401171641059408</v>
+      </c>
+      <c r="G28">
+        <v>0.05474517364021914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006629508277864657</v>
+        <v>-0.01262155880520897</v>
       </c>
       <c r="C29">
-        <v>-0.01430623530578571</v>
+        <v>0.01874665522987864</v>
       </c>
       <c r="D29">
-        <v>-0.01028424431676543</v>
+        <v>0.00723038921663483</v>
       </c>
       <c r="E29">
-        <v>0.005419670026193364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001195652671217673</v>
+      </c>
+      <c r="F29">
+        <v>-0.005185848903328009</v>
+      </c>
+      <c r="G29">
+        <v>0.0312817810494507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02361973077582358</v>
+        <v>-0.04081610941601655</v>
       </c>
       <c r="C30">
-        <v>-0.03261600783257181</v>
+        <v>0.06978473377694697</v>
       </c>
       <c r="D30">
-        <v>-0.006311589742143711</v>
+        <v>0.02682156647759689</v>
       </c>
       <c r="E30">
-        <v>-0.07851720251825721</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02123257267375114</v>
+      </c>
+      <c r="F30">
+        <v>0.0457560727523548</v>
+      </c>
+      <c r="G30">
+        <v>-0.004182056320287324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.005819670031089932</v>
+        <v>-0.04417163159141327</v>
       </c>
       <c r="C31">
-        <v>-0.04832802377270188</v>
+        <v>0.03054545895163017</v>
       </c>
       <c r="D31">
-        <v>-0.02185531143033564</v>
+        <v>0.00310154420634859</v>
       </c>
       <c r="E31">
-        <v>-0.005331547742797554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.009758077919326962</v>
+      </c>
+      <c r="F31">
+        <v>-0.03697855671760714</v>
+      </c>
+      <c r="G31">
+        <v>0.02825712908844101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007952143354029124</v>
+        <v>-0.004667264281025082</v>
       </c>
       <c r="C32">
-        <v>0.001428489486976208</v>
+        <v>0.03357451171985871</v>
       </c>
       <c r="D32">
-        <v>-0.03258457704926608</v>
+        <v>-0.004664747306746858</v>
       </c>
       <c r="E32">
-        <v>0.00909456561848344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01517005107736032</v>
+      </c>
+      <c r="F32">
+        <v>0.07625424085312645</v>
+      </c>
+      <c r="G32">
+        <v>0.05257736692832957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01140137928400085</v>
+        <v>-0.03056854635029582</v>
       </c>
       <c r="C33">
-        <v>-0.02684449900298884</v>
+        <v>0.04960121282461125</v>
       </c>
       <c r="D33">
-        <v>-0.002760324023735907</v>
+        <v>0.01387010206173964</v>
       </c>
       <c r="E33">
-        <v>-0.03214476381039882</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0201932197360709</v>
+      </c>
+      <c r="F33">
+        <v>0.02612998058231913</v>
+      </c>
+      <c r="G33">
+        <v>0.02421717734860043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005754395800921288</v>
+        <v>-0.04617709913310728</v>
       </c>
       <c r="C34">
-        <v>-0.02900320984223588</v>
+        <v>0.05355044584362423</v>
       </c>
       <c r="D34">
-        <v>-0.03366095655994557</v>
+        <v>-0.005852921545900242</v>
       </c>
       <c r="E34">
-        <v>-0.02007162997107092</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01165921876131303</v>
+      </c>
+      <c r="F34">
+        <v>0.02209621906021626</v>
+      </c>
+      <c r="G34">
+        <v>0.02780343850372149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01128035745954893</v>
+        <v>-0.01152382616547036</v>
       </c>
       <c r="C36">
-        <v>-0.01353919113239594</v>
+        <v>0.006075026003064131</v>
       </c>
       <c r="D36">
-        <v>-0.001230637327153113</v>
+        <v>0.01105554673384223</v>
       </c>
       <c r="E36">
-        <v>0.003534609814555668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0004595562788726564</v>
+      </c>
+      <c r="F36">
+        <v>-0.0005702875218211279</v>
+      </c>
+      <c r="G36">
+        <v>0.01937392020958448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.00652328572861798</v>
+        <v>-0.03499598112346237</v>
       </c>
       <c r="C38">
-        <v>-0.02711820514181039</v>
+        <v>0.02447419266830951</v>
       </c>
       <c r="D38">
-        <v>-0.01253247669704717</v>
+        <v>-0.008208755163025406</v>
       </c>
       <c r="E38">
-        <v>-0.01532141222406946</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003524336482889805</v>
+      </c>
+      <c r="F38">
+        <v>0.001357930066149135</v>
+      </c>
+      <c r="G38">
+        <v>0.02877281610374683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005354823422869801</v>
+        <v>-0.03307351955595535</v>
       </c>
       <c r="C39">
-        <v>-0.01551074672118375</v>
+        <v>0.08201367289616802</v>
       </c>
       <c r="D39">
-        <v>-0.05158253261954432</v>
+        <v>0.01159309902275401</v>
       </c>
       <c r="E39">
-        <v>-0.04250398325474111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01168110522861712</v>
+      </c>
+      <c r="F39">
+        <v>0.0393596498498017</v>
+      </c>
+      <c r="G39">
+        <v>0.01953866192587008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01027019360062522</v>
+        <v>-0.02055607017346784</v>
       </c>
       <c r="C40">
-        <v>-0.0263004924647462</v>
+        <v>0.03026308091458117</v>
       </c>
       <c r="D40">
-        <v>-0.02489675351697038</v>
+        <v>0.01281436107649507</v>
       </c>
       <c r="E40">
-        <v>-0.0308509249669425</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0164583367536805</v>
+      </c>
+      <c r="F40">
+        <v>0.02165964196174796</v>
+      </c>
+      <c r="G40">
+        <v>0.02081887679204112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004725856062692876</v>
+        <v>-0.01206571300922351</v>
       </c>
       <c r="C41">
-        <v>-0.01514879608629168</v>
+        <v>-0.002126715060661279</v>
       </c>
       <c r="D41">
-        <v>0.007740520890211349</v>
+        <v>0.003420148388517695</v>
       </c>
       <c r="E41">
-        <v>0.006265400864792661</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003009043475254721</v>
+      </c>
+      <c r="F41">
+        <v>0.0006846743229104728</v>
+      </c>
+      <c r="G41">
+        <v>0.01354697343614204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08586692473617348</v>
+        <v>-0.03319138240414114</v>
       </c>
       <c r="C42">
-        <v>-0.09869755722570177</v>
+        <v>0.05585553531518921</v>
       </c>
       <c r="D42">
-        <v>-0.05401147863289431</v>
+        <v>0.1017603509939124</v>
       </c>
       <c r="E42">
-        <v>-0.252189839386211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.05798273475800585</v>
+      </c>
+      <c r="F42">
+        <v>-0.1011658001619263</v>
+      </c>
+      <c r="G42">
+        <v>-0.1991256077265732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005545798080689153</v>
+        <v>-0.02935839318635311</v>
       </c>
       <c r="C43">
-        <v>-0.01407942885355065</v>
+        <v>0.006623266912688065</v>
       </c>
       <c r="D43">
-        <v>0.009383314949073289</v>
+        <v>0.003600525347472361</v>
       </c>
       <c r="E43">
-        <v>0.005325531947881789</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.002747819614364504</v>
+      </c>
+      <c r="F43">
+        <v>-0.0003847408863260747</v>
+      </c>
+      <c r="G43">
+        <v>0.01840341000893699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002393004987210355</v>
+        <v>-0.01655271015859506</v>
       </c>
       <c r="C44">
-        <v>-2.842741487372038e-05</v>
+        <v>0.04651207451261347</v>
       </c>
       <c r="D44">
-        <v>-0.015716123549961</v>
+        <v>0.006424430765312226</v>
       </c>
       <c r="E44">
-        <v>0.001622229437627844</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01872898452036454</v>
+      </c>
+      <c r="F44">
+        <v>0.02685385682754635</v>
+      </c>
+      <c r="G44">
+        <v>0.03469013518761808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009594345785296422</v>
+        <v>-0.003071178740932485</v>
       </c>
       <c r="C46">
-        <v>-0.008351249184507421</v>
+        <v>0.01685395194226211</v>
       </c>
       <c r="D46">
-        <v>-0.01513925903828793</v>
+        <v>0.01163661095485728</v>
       </c>
       <c r="E46">
-        <v>-0.009495587338340701</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00064951017304218</v>
+      </c>
+      <c r="F46">
+        <v>-0.009107048429478135</v>
+      </c>
+      <c r="G46">
+        <v>0.0251516940941636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>6.133744375826006e-05</v>
+        <v>-0.07619791394747082</v>
       </c>
       <c r="C47">
-        <v>-0.07210738601135132</v>
+        <v>0.06214002628469287</v>
       </c>
       <c r="D47">
-        <v>-0.02167737610565463</v>
+        <v>-0.005244991899223534</v>
       </c>
       <c r="E47">
-        <v>-0.02638541984971129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0119484085544218</v>
+      </c>
+      <c r="F47">
+        <v>-0.0622477858375974</v>
+      </c>
+      <c r="G47">
+        <v>0.02277384710920353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002308711089212697</v>
+        <v>-0.01920828735824858</v>
       </c>
       <c r="C48">
-        <v>-0.02523619486213778</v>
+        <v>0.01009474359565877</v>
       </c>
       <c r="D48">
-        <v>-0.004962768751268293</v>
+        <v>0.0008790001158550032</v>
       </c>
       <c r="E48">
-        <v>-0.0007269979941415209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002473324045870771</v>
+      </c>
+      <c r="F48">
+        <v>-0.01417397129484085</v>
+      </c>
+      <c r="G48">
+        <v>0.02558454725141341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0008130916789362956</v>
+        <v>-0.08098905711794575</v>
       </c>
       <c r="C50">
-        <v>-0.0646711616163108</v>
+        <v>0.06365405435970765</v>
       </c>
       <c r="D50">
-        <v>-0.04141649260930159</v>
+        <v>-0.00433640968548676</v>
       </c>
       <c r="E50">
-        <v>-0.008422854821700852</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01341007849367284</v>
+      </c>
+      <c r="F50">
+        <v>-0.05722361081682704</v>
+      </c>
+      <c r="G50">
+        <v>0.04323169175919531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006040662170955862</v>
+        <v>-0.01311405214181069</v>
       </c>
       <c r="C51">
-        <v>0.0007395642987037966</v>
+        <v>0.02612898817306559</v>
       </c>
       <c r="D51">
-        <v>0.003072725865338389</v>
+        <v>0.008626905946425503</v>
       </c>
       <c r="E51">
-        <v>0.02239790599823696</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.005063118992723358</v>
+      </c>
+      <c r="F51">
+        <v>0.03134912512362814</v>
+      </c>
+      <c r="G51">
+        <v>0.04619605048676231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.00190960113098746</v>
+        <v>-0.097217050206578</v>
       </c>
       <c r="C53">
-        <v>-0.101794069274723</v>
+        <v>0.07477639585032191</v>
       </c>
       <c r="D53">
-        <v>-0.06015567969266494</v>
+        <v>-0.005883744885116809</v>
       </c>
       <c r="E53">
-        <v>-0.04483928414179532</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03783233173799796</v>
+      </c>
+      <c r="F53">
+        <v>-0.06610319828773906</v>
+      </c>
+      <c r="G53">
+        <v>0.0261594927022767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002484918552981878</v>
+        <v>-0.02906834820713739</v>
       </c>
       <c r="C54">
-        <v>-0.02331853879903007</v>
+        <v>0.004001350641285819</v>
       </c>
       <c r="D54">
-        <v>0.003093104471230946</v>
+        <v>-0.004197288821640645</v>
       </c>
       <c r="E54">
-        <v>0.01403196897171235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003612728804525205</v>
+      </c>
+      <c r="F54">
+        <v>-0.001644344033876548</v>
+      </c>
+      <c r="G54">
+        <v>0.03078941307939157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-7.887181591005774e-05</v>
+        <v>-0.07403386752287826</v>
       </c>
       <c r="C55">
-        <v>-0.07891339518018463</v>
+        <v>0.07054020463700902</v>
       </c>
       <c r="D55">
-        <v>-0.05260344657604975</v>
+        <v>-0.004778897554933993</v>
       </c>
       <c r="E55">
-        <v>-0.0519840382895834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02561662830698102</v>
+      </c>
+      <c r="F55">
+        <v>-0.06263037417790737</v>
+      </c>
+      <c r="G55">
+        <v>0.01213450889708887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0006195477429767109</v>
+        <v>-0.1492390109333927</v>
       </c>
       <c r="C56">
-        <v>-0.1484930642781357</v>
+        <v>0.09732490597433351</v>
       </c>
       <c r="D56">
-        <v>-0.06717671519910529</v>
+        <v>-0.01463749872908449</v>
       </c>
       <c r="E56">
-        <v>-0.06991572603484782</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04218192336248612</v>
+      </c>
+      <c r="F56">
+        <v>-0.103683438421433</v>
+      </c>
+      <c r="G56">
+        <v>0.002779555454099631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02329836498374046</v>
+        <v>-0.01268615323469785</v>
       </c>
       <c r="C57">
-        <v>-0.03652492126334417</v>
+        <v>0.01138149422425762</v>
       </c>
       <c r="D57">
-        <v>-0.01363296444512468</v>
+        <v>0.02354365350872229</v>
       </c>
       <c r="E57">
-        <v>-0.02075787342544532</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02719442167330196</v>
+      </c>
+      <c r="F57">
+        <v>0.01593719733636011</v>
+      </c>
+      <c r="G57">
+        <v>0.02178952038785376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01015108636779965</v>
+        <v>-0.07599683954181959</v>
       </c>
       <c r="C58">
-        <v>-0.1006340847951827</v>
+        <v>0.0675966590197741</v>
       </c>
       <c r="D58">
-        <v>0.08047948258048254</v>
+        <v>0.01897661062033549</v>
       </c>
       <c r="E58">
-        <v>-0.1167877580012825</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9464381000832667</v>
+      </c>
+      <c r="F58">
+        <v>-0.2212929180167066</v>
+      </c>
+      <c r="G58">
+        <v>0.05574004987230156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.01844559703590709</v>
+        <v>-0.1466381654847097</v>
       </c>
       <c r="C59">
-        <v>-0.1255817550188955</v>
+        <v>-0.2175963894550409</v>
       </c>
       <c r="D59">
-        <v>0.1847443858393041</v>
+        <v>-0.01701132382570803</v>
       </c>
       <c r="E59">
-        <v>0.1270097847110524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01433790403467068</v>
+      </c>
+      <c r="F59">
+        <v>0.009646610135468961</v>
+      </c>
+      <c r="G59">
+        <v>0.01787358731183836</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02708509355995231</v>
+        <v>-0.2947902504837414</v>
       </c>
       <c r="C60">
-        <v>-0.197209684263467</v>
+        <v>0.07798308925682725</v>
       </c>
       <c r="D60">
-        <v>0.03118193087069135</v>
+        <v>0.007254607036984924</v>
       </c>
       <c r="E60">
-        <v>-0.04692193924320626</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01504246757573477</v>
+      </c>
+      <c r="F60">
+        <v>0.3851955151589083</v>
+      </c>
+      <c r="G60">
+        <v>-0.07543498452254682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002662318699438793</v>
+        <v>-0.03388792278891224</v>
       </c>
       <c r="C61">
-        <v>-0.02783419911830457</v>
+        <v>0.0623186347930168</v>
       </c>
       <c r="D61">
-        <v>-0.03794863962401174</v>
+        <v>0.004946084406201146</v>
       </c>
       <c r="E61">
-        <v>-0.03877291218549757</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.007521694069197683</v>
+      </c>
+      <c r="F61">
+        <v>0.02481599323176648</v>
+      </c>
+      <c r="G61">
+        <v>0.02058984865283658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007260609741755295</v>
+        <v>-0.01586521088925566</v>
       </c>
       <c r="C63">
-        <v>-0.01389655233973383</v>
+        <v>0.02546675086616654</v>
       </c>
       <c r="D63">
-        <v>-0.01478525898532276</v>
+        <v>0.007649239874423935</v>
       </c>
       <c r="E63">
-        <v>-0.006466107886993561</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01093947086027271</v>
+      </c>
+      <c r="F63">
+        <v>-0.01146257318696874</v>
+      </c>
+      <c r="G63">
+        <v>0.03041092943613731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.005356115986944116</v>
+        <v>-0.04744840052861489</v>
       </c>
       <c r="C64">
-        <v>-0.04365196321340261</v>
+        <v>0.03493157019595435</v>
       </c>
       <c r="D64">
-        <v>-0.03081830284011114</v>
+        <v>0.004584740580581123</v>
       </c>
       <c r="E64">
-        <v>-0.03257489216375062</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.00909046309831203</v>
+      </c>
+      <c r="F64">
+        <v>0.01377943265914066</v>
+      </c>
+      <c r="G64">
+        <v>0.01850745370922938</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01707419046495645</v>
+        <v>-0.08146269077069918</v>
       </c>
       <c r="C65">
-        <v>-0.06349706958619698</v>
+        <v>0.06582205303486316</v>
       </c>
       <c r="D65">
-        <v>-0.04817955835889649</v>
+        <v>0.01511903080590478</v>
       </c>
       <c r="E65">
-        <v>-0.04077228369910192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.004012693337978473</v>
+      </c>
+      <c r="F65">
+        <v>0.04104935445215948</v>
+      </c>
+      <c r="G65">
+        <v>0.01002701211996927</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004989031684411478</v>
+        <v>-0.05482074840439847</v>
       </c>
       <c r="C66">
-        <v>-0.03570096560648588</v>
+        <v>0.1140221508080242</v>
       </c>
       <c r="D66">
-        <v>-0.05295319260725164</v>
+        <v>0.01090124083585075</v>
       </c>
       <c r="E66">
-        <v>-0.06780911432213342</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01494854582237966</v>
+      </c>
+      <c r="F66">
+        <v>0.04813725817811796</v>
+      </c>
+      <c r="G66">
+        <v>0.01097346734721476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001925657308757069</v>
+        <v>-0.05874040735711972</v>
       </c>
       <c r="C67">
-        <v>-0.04367776834105584</v>
+        <v>0.02753485909590927</v>
       </c>
       <c r="D67">
-        <v>-0.00847922118826403</v>
+        <v>-0.006718416141791154</v>
       </c>
       <c r="E67">
-        <v>-0.01597014862469546</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003879690998643047</v>
+      </c>
+      <c r="F67">
+        <v>-0.0001924898237458016</v>
+      </c>
+      <c r="G67">
+        <v>0.02920958070715446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03616157122906352</v>
+        <v>-0.1278575374952281</v>
       </c>
       <c r="C68">
-        <v>-0.1113294325277926</v>
+        <v>-0.2732357932946823</v>
       </c>
       <c r="D68">
-        <v>0.1848428587700495</v>
+        <v>0.001186774321326451</v>
       </c>
       <c r="E68">
-        <v>0.1394293331185384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01857674826630685</v>
+      </c>
+      <c r="F68">
+        <v>-0.01348446113216071</v>
+      </c>
+      <c r="G68">
+        <v>0.01983659042516447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.004070547453276181</v>
+        <v>-0.07835183021343781</v>
       </c>
       <c r="C69">
-        <v>-0.05901425207186212</v>
+        <v>0.06170369272710449</v>
       </c>
       <c r="D69">
-        <v>-0.02327910621240459</v>
+        <v>-0.009462044149046663</v>
       </c>
       <c r="E69">
-        <v>-0.02509224995810526</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0303164985407832</v>
+      </c>
+      <c r="F69">
+        <v>-0.04152430503830638</v>
+      </c>
+      <c r="G69">
+        <v>0.01860902867009285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02504120075981393</v>
+        <v>-0.125261182644584</v>
       </c>
       <c r="C71">
-        <v>-0.1040168651556461</v>
+        <v>-0.2304072854430085</v>
       </c>
       <c r="D71">
-        <v>0.1590954878965995</v>
+        <v>-0.007648656365267687</v>
       </c>
       <c r="E71">
-        <v>0.1350752790992317</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02442219634313058</v>
+      </c>
+      <c r="F71">
+        <v>-0.01808544645741542</v>
+      </c>
+      <c r="G71">
+        <v>0.03667230100064302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002977625472037594</v>
+        <v>-0.08608925010771656</v>
       </c>
       <c r="C72">
-        <v>-0.1176076365558927</v>
+        <v>0.07630366196583327</v>
       </c>
       <c r="D72">
-        <v>-0.06458585526599867</v>
+        <v>-0.00892893937190381</v>
       </c>
       <c r="E72">
-        <v>-0.09234410598951828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01105047630989233</v>
+      </c>
+      <c r="F72">
+        <v>0.03797453329026881</v>
+      </c>
+      <c r="G72">
+        <v>-0.002639700718372129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.0393805087641753</v>
+        <v>-0.4048949214897573</v>
       </c>
       <c r="C73">
-        <v>-0.2461859839850746</v>
+        <v>0.09470880499658023</v>
       </c>
       <c r="D73">
-        <v>0.025782713282266</v>
+        <v>0.01173757352592965</v>
       </c>
       <c r="E73">
-        <v>-0.134534808449658</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06048647224788695</v>
+      </c>
+      <c r="F73">
+        <v>0.5356097589491435</v>
+      </c>
+      <c r="G73">
+        <v>-0.1312273021505187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001744557150913771</v>
+        <v>-0.1182119517402378</v>
       </c>
       <c r="C74">
-        <v>-0.1381259848727835</v>
+        <v>0.114278544392969</v>
       </c>
       <c r="D74">
-        <v>-0.05787965953697485</v>
+        <v>-0.01072530412067726</v>
       </c>
       <c r="E74">
-        <v>-0.07318742148612922</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03629944231282603</v>
+      </c>
+      <c r="F74">
+        <v>-0.07051322779887216</v>
+      </c>
+      <c r="G74">
+        <v>0.02113983557915296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.003148629193383641</v>
+        <v>-0.2646681941114948</v>
       </c>
       <c r="C75">
-        <v>-0.2805283128133667</v>
+        <v>0.1412663189340113</v>
       </c>
       <c r="D75">
-        <v>-0.09890984563552888</v>
+        <v>-0.03205678110807764</v>
       </c>
       <c r="E75">
-        <v>-0.1355188887215016</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07468686286189817</v>
+      </c>
+      <c r="F75">
+        <v>-0.2161442750947062</v>
+      </c>
+      <c r="G75">
+        <v>-0.02332623557987382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006489113819147236</v>
+        <v>-0.1403848249146328</v>
       </c>
       <c r="C76">
-        <v>-0.2381942443791954</v>
+        <v>0.1193117782960312</v>
       </c>
       <c r="D76">
-        <v>-0.1110425489316807</v>
+        <v>-0.02205315170844756</v>
       </c>
       <c r="E76">
-        <v>-0.1127791977784393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.06612592608230083</v>
+      </c>
+      <c r="F76">
+        <v>-0.1364716025019886</v>
+      </c>
+      <c r="G76">
+        <v>0.01059419268399575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01182567612846176</v>
+        <v>-0.0626608930726599</v>
       </c>
       <c r="C77">
-        <v>-0.03785355986400685</v>
+        <v>0.05993004926027762</v>
       </c>
       <c r="D77">
-        <v>-0.03869363438946648</v>
+        <v>0.0119509589523068</v>
       </c>
       <c r="E77">
-        <v>-0.03638334644611892</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04113330613756597</v>
+      </c>
+      <c r="F77">
+        <v>0.0209946448250999</v>
+      </c>
+      <c r="G77">
+        <v>0.04419896749592548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003600938658312615</v>
+        <v>-0.04107144070723848</v>
       </c>
       <c r="C78">
-        <v>-0.03249209662345919</v>
+        <v>0.05000875865266927</v>
       </c>
       <c r="D78">
-        <v>-0.03183569890589249</v>
+        <v>0.005283382573722408</v>
       </c>
       <c r="E78">
-        <v>-0.02490500366630835</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01744928638147252</v>
+      </c>
+      <c r="F78">
+        <v>0.04165846210697615</v>
+      </c>
+      <c r="G78">
+        <v>0.03166916893651606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01581037673096082</v>
+        <v>-0.05924992470630223</v>
       </c>
       <c r="C80">
-        <v>-0.2173813459689123</v>
+        <v>0.07100158012813426</v>
       </c>
       <c r="D80">
-        <v>-0.6343010915436182</v>
+        <v>0.01375354253873406</v>
       </c>
       <c r="E80">
-        <v>0.6993451405289556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0698968668995624</v>
+      </c>
+      <c r="F80">
+        <v>0.04528973599686843</v>
+      </c>
+      <c r="G80">
+        <v>0.9165895531383662</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0009322377706530949</v>
+        <v>-0.1485422059597119</v>
       </c>
       <c r="C81">
-        <v>-0.1919209229448287</v>
+        <v>0.09211720621724445</v>
       </c>
       <c r="D81">
-        <v>-0.07160319924135988</v>
+        <v>-0.01656035987978724</v>
       </c>
       <c r="E81">
-        <v>-0.08034576007497847</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04580814724245395</v>
+      </c>
+      <c r="F81">
+        <v>-0.1391627070982029</v>
+      </c>
+      <c r="G81">
+        <v>0.01322060070638359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05248481887313396</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03183555402111743</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00289408648301874</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01372116348826247</v>
+      </c>
+      <c r="F82">
+        <v>-0.003258689062113019</v>
+      </c>
+      <c r="G82">
+        <v>-0.005683184378797466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006349108480161577</v>
+        <v>-0.02883935460718287</v>
       </c>
       <c r="C83">
-        <v>-0.0309459782933759</v>
+        <v>0.01900755928824985</v>
       </c>
       <c r="D83">
-        <v>-0.002286038648881833</v>
+        <v>0.005180922320578235</v>
       </c>
       <c r="E83">
-        <v>-0.007646256013205948</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02656377129698621</v>
+      </c>
+      <c r="F83">
+        <v>0.02389729779384431</v>
+      </c>
+      <c r="G83">
+        <v>0.02702330934867849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.005800368908860037</v>
+        <v>-0.2411233510987983</v>
       </c>
       <c r="C85">
-        <v>-0.2436450616261148</v>
+        <v>0.145978463807188</v>
       </c>
       <c r="D85">
-        <v>-0.1078844939793601</v>
+        <v>-0.02071021542969429</v>
       </c>
       <c r="E85">
-        <v>-0.1531975406862874</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1189421976549747</v>
+      </c>
+      <c r="F85">
+        <v>-0.2038733606018339</v>
+      </c>
+      <c r="G85">
+        <v>-0.04768522794003997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.004926656533767861</v>
+        <v>-0.01015944656424366</v>
       </c>
       <c r="C86">
-        <v>0.001004601139629253</v>
+        <v>0.02363955899133428</v>
       </c>
       <c r="D86">
-        <v>-0.008500037507756911</v>
+        <v>0.009546165113238385</v>
       </c>
       <c r="E86">
-        <v>-0.0002522878706044086</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02463849452221629</v>
+      </c>
+      <c r="F86">
+        <v>0.02040986822918118</v>
+      </c>
+      <c r="G86">
+        <v>0.05616145138144839</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006210013689386846</v>
+        <v>-0.01552126023622127</v>
       </c>
       <c r="C87">
-        <v>-0.01675315125278926</v>
+        <v>0.02720016723120547</v>
       </c>
       <c r="D87">
-        <v>-0.02109765822203953</v>
+        <v>0.01131935107202422</v>
       </c>
       <c r="E87">
-        <v>-0.01743048357522359</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07724402373543744</v>
+      </c>
+      <c r="F87">
+        <v>0.06106694043812679</v>
+      </c>
+      <c r="G87">
+        <v>0.03937377559030888</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02539350120004046</v>
+        <v>-0.09136414391199099</v>
       </c>
       <c r="C88">
-        <v>-0.04997323321063604</v>
+        <v>0.05389202394782617</v>
       </c>
       <c r="D88">
-        <v>-0.001528076769901538</v>
+        <v>0.02077442495490249</v>
       </c>
       <c r="E88">
-        <v>-0.01124098445344834</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.007316510781163754</v>
+      </c>
+      <c r="F88">
+        <v>-0.002196511596736084</v>
+      </c>
+      <c r="G88">
+        <v>0.02167631299899539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.0477113772361829</v>
+        <v>-0.2124052788615864</v>
       </c>
       <c r="C89">
-        <v>-0.2161891509147792</v>
+        <v>-0.3733887779844438</v>
       </c>
       <c r="D89">
-        <v>0.3248973370661757</v>
+        <v>-0.009111794885721171</v>
       </c>
       <c r="E89">
-        <v>0.2233722342145479</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01545005374713452</v>
+      </c>
+      <c r="F89">
+        <v>-0.03322444827174231</v>
+      </c>
+      <c r="G89">
+        <v>0.02862636594575432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03526814197922877</v>
+        <v>-0.1787784974683891</v>
       </c>
       <c r="C90">
-        <v>-0.1302080282395996</v>
+        <v>-0.3394385287682602</v>
       </c>
       <c r="D90">
-        <v>0.2656026200941922</v>
+        <v>-0.01198947581655042</v>
       </c>
       <c r="E90">
-        <v>0.1810540871981997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.003909345873096308</v>
+      </c>
+      <c r="F90">
+        <v>-0.04658981899685078</v>
+      </c>
+      <c r="G90">
+        <v>0.005451148861094104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.002447247274651847</v>
+        <v>-0.2133496900763436</v>
       </c>
       <c r="C91">
-        <v>-0.2673433600924002</v>
+        <v>0.1322292465237381</v>
       </c>
       <c r="D91">
-        <v>-0.1109946630167219</v>
+        <v>-0.02515958464424413</v>
       </c>
       <c r="E91">
-        <v>-0.1519169678048909</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08307745167688398</v>
+      </c>
+      <c r="F91">
+        <v>-0.1912320287741203</v>
+      </c>
+      <c r="G91">
+        <v>-0.005817260502248173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.0009779746112129626</v>
+        <v>-0.2023225722129394</v>
       </c>
       <c r="C92">
-        <v>-0.2778330065618984</v>
+        <v>-0.2743683659381307</v>
       </c>
       <c r="D92">
-        <v>0.2459461811417802</v>
+        <v>-0.05483648745478149</v>
       </c>
       <c r="E92">
-        <v>0.1585160652631082</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.008323092958412368</v>
+      </c>
+      <c r="F92">
+        <v>-0.1336735923766132</v>
+      </c>
+      <c r="G92">
+        <v>0.06120614482680318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03431450902312908</v>
+        <v>-0.2044140408247067</v>
       </c>
       <c r="C93">
-        <v>-0.1969864757273768</v>
+        <v>-0.335904779404215</v>
       </c>
       <c r="D93">
-        <v>0.3099392392675189</v>
+        <v>-0.01889044413574664</v>
       </c>
       <c r="E93">
-        <v>0.1831468267051691</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01081153545587202</v>
+      </c>
+      <c r="F93">
+        <v>-0.02045942578111698</v>
+      </c>
+      <c r="G93">
+        <v>0.00184025198299131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01740497862918731</v>
+        <v>-0.2824530732014446</v>
       </c>
       <c r="C94">
-        <v>-0.3026961707346042</v>
+        <v>0.1506338871706018</v>
       </c>
       <c r="D94">
-        <v>-0.06234108272973557</v>
+        <v>-0.01430711588902079</v>
       </c>
       <c r="E94">
-        <v>-0.1572438898717081</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1045168204975792</v>
+      </c>
+      <c r="F94">
+        <v>-0.3965213654284708</v>
+      </c>
+      <c r="G94">
+        <v>-0.1274896351584889</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006828719359742471</v>
+        <v>-0.08465945793652101</v>
       </c>
       <c r="C95">
-        <v>-0.08289097614900047</v>
+        <v>0.07365305054824081</v>
       </c>
       <c r="D95">
-        <v>0.04707500752495658</v>
+        <v>-0.00816883517324872</v>
       </c>
       <c r="E95">
-        <v>-0.0733527192261411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07588593895217231</v>
+      </c>
+      <c r="F95">
+        <v>0.1578132400603171</v>
+      </c>
+      <c r="G95">
+        <v>-0.07361581969354165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.001590890695535425</v>
+        <v>-0.2120748809806718</v>
       </c>
       <c r="C98">
-        <v>-0.1978577782508327</v>
+        <v>0.04287723136790635</v>
       </c>
       <c r="D98">
-        <v>0.02388160462609557</v>
+        <v>-0.01739417955108225</v>
       </c>
       <c r="E98">
-        <v>-0.06650324986189451</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06574025183204202</v>
+      </c>
+      <c r="F98">
+        <v>0.2423120409381796</v>
+      </c>
+      <c r="G98">
+        <v>-0.03697558060769614</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007787830882526321</v>
+        <v>-0.01400489046418809</v>
       </c>
       <c r="C101">
-        <v>-0.02369247812020131</v>
+        <v>0.01965297366347863</v>
       </c>
       <c r="D101">
-        <v>-0.004214030801541889</v>
+        <v>0.00838806777326543</v>
       </c>
       <c r="E101">
-        <v>-0.003098849498888044</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03698783676630241</v>
+      </c>
+      <c r="F101">
+        <v>-0.0237784495421894</v>
+      </c>
+      <c r="G101">
+        <v>0.03870658801519206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01180700128105954</v>
+        <v>-0.1271394272750244</v>
       </c>
       <c r="C102">
-        <v>-0.1433968453229489</v>
+        <v>0.07983625405265465</v>
       </c>
       <c r="D102">
-        <v>-0.04954342675248689</v>
+        <v>-0.0006079778218561447</v>
       </c>
       <c r="E102">
-        <v>-0.07140536279450856</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04315333749611594</v>
+      </c>
+      <c r="F102">
+        <v>-0.06445658565008482</v>
+      </c>
+      <c r="G102">
+        <v>-0.01195113558355338</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001916969077366765</v>
+        <v>-0.005294166482357596</v>
       </c>
       <c r="C103">
-        <v>-0.02844255213660414</v>
+        <v>0.005860348321340083</v>
       </c>
       <c r="D103">
-        <v>-0.023048549840218</v>
+        <v>0.0005185856664223277</v>
       </c>
       <c r="E103">
-        <v>-0.006566979424330272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0005101941467862834</v>
+      </c>
+      <c r="F103">
+        <v>-0.00839362691654374</v>
+      </c>
+      <c r="G103">
+        <v>0.01508045489861252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9875882250912597</v>
+        <v>-0.03902748701354336</v>
       </c>
       <c r="C104">
-        <v>0.07828581785120836</v>
+        <v>-0.04612959402935343</v>
       </c>
       <c r="D104">
-        <v>-0.03542521445792147</v>
+        <v>0.9861291342952476</v>
       </c>
       <c r="E104">
-        <v>-0.01223058723981851</v>
+        <v>-0.04265672347075881</v>
+      </c>
+      <c r="F104">
+        <v>-0.03962497479717157</v>
+      </c>
+      <c r="G104">
+        <v>-0.002734867564194732</v>
       </c>
     </row>
   </sheetData>
